--- a/PulseBox/Documentation/PulseBox Pricing.xlsx
+++ b/PulseBox/Documentation/PulseBox Pricing.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DTM\GitHub\dtmdropbox\PulseBox\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Catagory Pricing" sheetId="1" r:id="rId1"/>
     <sheet name="Formula Pricing" sheetId="2" r:id="rId2"/>
+    <sheet name="Separate Pricing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">PulseBox Pricing </t>
   </si>
@@ -89,19 +90,62 @@
   <si>
     <t>Total Yearly Cost</t>
   </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>PulseBox Employee</t>
+  </si>
+  <si>
+    <t>PulseBox Customer</t>
+  </si>
+  <si>
+    <t>PulseBox Tools</t>
+  </si>
+  <si>
+    <t>Yearly Cost - Tools</t>
+  </si>
+  <si>
+    <t>Monthly Cost - Tools</t>
+  </si>
+  <si>
+    <t>Monthly Cost - All 3</t>
+  </si>
+  <si>
+    <t>Yearly Cost - All 3</t>
+  </si>
+  <si>
+    <t>Monthly Cost - Employee</t>
+  </si>
+  <si>
+    <t>Yearly Cost - Employee</t>
+  </si>
+  <si>
+    <t>Monthly Cost - Customer</t>
+  </si>
+  <si>
+    <t>Yearly Cost - Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumption: </t>
+  </si>
+  <si>
+    <t>For customer piece assume average of 2,000 customers in fast food so 10% or 200 actie users of pulsebox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,7 +193,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,9 +208,54 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -451,8 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:P21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,8 +1026,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1156,7 @@
         <v>29.96550472477125</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F9:F44" si="4">E10*12</f>
+        <f t="shared" ref="F10:F44" si="4">E10*12</f>
         <v>359.586056697255</v>
       </c>
       <c r="G10" s="9">
@@ -1929,6 +2021,1513 @@
       <c r="C45" t="s">
         <v>15</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="22">
+        <v>5.99</v>
+      </c>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="22">
+        <v>3.99</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <f>B2*B7</f>
+        <v>5.99</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" ref="D7:D15" si="0">C7*12</f>
+        <v>71.88</v>
+      </c>
+      <c r="E7" s="20">
+        <f>B3*B7</f>
+        <v>1.99</v>
+      </c>
+      <c r="F7" s="20">
+        <f>E7*12</f>
+        <v>23.88</v>
+      </c>
+      <c r="G7" s="26">
+        <f>B7*B4</f>
+        <v>3.99</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:H15" si="1">G7*12</f>
+        <v>47.88</v>
+      </c>
+      <c r="I7" s="24">
+        <f>C7+E7+G7</f>
+        <v>11.97</v>
+      </c>
+      <c r="J7" s="24">
+        <f>D7+F7+H7</f>
+        <v>143.63999999999999</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="20">
+        <f>B2*B8</f>
+        <v>11.98</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
+        <v>143.76</v>
+      </c>
+      <c r="E8" s="20">
+        <f>B3*B8</f>
+        <v>3.98</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" ref="F8:F43" si="2">E8*12</f>
+        <v>47.76</v>
+      </c>
+      <c r="G8" s="26">
+        <f>B8*B4</f>
+        <v>7.98</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="1"/>
+        <v>95.76</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" ref="I8:I43" si="3">C8+E8+G8</f>
+        <v>23.94</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" ref="J8:J43" si="4">D8+F8+H8</f>
+        <v>287.27999999999997</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20">
+        <f>B2*B9</f>
+        <v>17.97</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
+        <v>215.64</v>
+      </c>
+      <c r="E9" s="20">
+        <f>B3*B9</f>
+        <v>5.97</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="2"/>
+        <v>71.64</v>
+      </c>
+      <c r="G9" s="26">
+        <f>B9*B4</f>
+        <v>11.97</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="1"/>
+        <v>143.64000000000001</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="3"/>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="4"/>
+        <v>430.91999999999996</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <f>B2*B10</f>
+        <v>23.96</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
+        <v>287.52</v>
+      </c>
+      <c r="E10" s="20">
+        <f>B3*B10</f>
+        <v>7.96</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="2"/>
+        <v>95.52</v>
+      </c>
+      <c r="G10" s="26">
+        <f>B10*B4</f>
+        <v>15.96</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="1"/>
+        <v>191.52</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="3"/>
+        <v>47.88</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="4"/>
+        <v>574.55999999999995</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
+        <f>B2*B11</f>
+        <v>29.950000000000003</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
+        <v>359.40000000000003</v>
+      </c>
+      <c r="E11" s="20">
+        <f>B3*B11</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>119.39999999999999</v>
+      </c>
+      <c r="G11" s="26">
+        <f>B11*B4</f>
+        <v>19.950000000000003</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="1"/>
+        <v>239.40000000000003</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="3"/>
+        <v>59.850000000000009</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="4"/>
+        <v>718.2</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20">
+        <f>B2*B12</f>
+        <v>35.94</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="0"/>
+        <v>431.28</v>
+      </c>
+      <c r="E12" s="20">
+        <f>B3*B12</f>
+        <v>11.94</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>143.28</v>
+      </c>
+      <c r="G12" s="26">
+        <f>B12*B4</f>
+        <v>23.94</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="1"/>
+        <v>287.28000000000003</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="3"/>
+        <v>71.819999999999993</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="4"/>
+        <v>861.83999999999992</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>7</v>
+      </c>
+      <c r="C13" s="20">
+        <f>B2*B13</f>
+        <v>41.93</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="0"/>
+        <v>503.15999999999997</v>
+      </c>
+      <c r="E13" s="20">
+        <f>B3*B13</f>
+        <v>13.93</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>167.16</v>
+      </c>
+      <c r="G13" s="26">
+        <f>B13*B4</f>
+        <v>27.93</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="1"/>
+        <v>335.15999999999997</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="3"/>
+        <v>83.789999999999992</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="4"/>
+        <v>1005.4799999999999</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>8</v>
+      </c>
+      <c r="C14" s="20">
+        <f>B2*B14</f>
+        <v>47.92</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
+        <v>575.04</v>
+      </c>
+      <c r="E14" s="20">
+        <f>B3*B14</f>
+        <v>15.92</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="2"/>
+        <v>191.04</v>
+      </c>
+      <c r="G14" s="26">
+        <f>B14*B4</f>
+        <v>31.92</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="1"/>
+        <v>383.04</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="3"/>
+        <v>95.76</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="4"/>
+        <v>1149.1199999999999</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20">
+        <f>B2*B15</f>
+        <v>53.910000000000004</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>646.92000000000007</v>
+      </c>
+      <c r="E15" s="20">
+        <f>B3*B15</f>
+        <v>17.91</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="2"/>
+        <v>214.92000000000002</v>
+      </c>
+      <c r="G15" s="26">
+        <f>B15*B4</f>
+        <v>35.910000000000004</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="1"/>
+        <v>430.92000000000007</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="3"/>
+        <v>107.73000000000002</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="4"/>
+        <v>1292.7600000000002</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20">
+        <f>B2*B16</f>
+        <v>59.900000000000006</v>
+      </c>
+      <c r="D16" s="20">
+        <f>C16*12</f>
+        <v>718.80000000000007</v>
+      </c>
+      <c r="E16" s="20">
+        <f>B3*B16</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>238.79999999999998</v>
+      </c>
+      <c r="G16" s="24">
+        <f>B16*B4</f>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="H16" s="24">
+        <f>G16*12</f>
+        <v>478.80000000000007</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
+        <v>119.70000000000002</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="4"/>
+        <v>1436.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>20</v>
+      </c>
+      <c r="C17" s="20">
+        <f>B2*B17</f>
+        <v>119.80000000000001</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" ref="D17:D43" si="5">C17*12</f>
+        <v>1437.6000000000001</v>
+      </c>
+      <c r="E17" s="20">
+        <f>B3*B17</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>477.59999999999997</v>
+      </c>
+      <c r="G17" s="24">
+        <f>B17*B4</f>
+        <v>79.800000000000011</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" ref="H17:H43" si="6">G17*12</f>
+        <v>957.60000000000014</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="3"/>
+        <v>239.40000000000003</v>
+      </c>
+      <c r="J17" s="24">
+        <f t="shared" si="4"/>
+        <v>2872.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="20">
+        <f>B2*B18</f>
+        <v>179.70000000000002</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="5"/>
+        <v>2156.4</v>
+      </c>
+      <c r="E18" s="20">
+        <f>B3*B18</f>
+        <v>59.7</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="2"/>
+        <v>716.40000000000009</v>
+      </c>
+      <c r="G18" s="24">
+        <f>B18*B4</f>
+        <v>119.7</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="6"/>
+        <v>1436.4</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="3"/>
+        <v>359.1</v>
+      </c>
+      <c r="J18" s="24">
+        <f t="shared" si="4"/>
+        <v>4309.2000000000007</v>
+      </c>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20">
+        <f>B2*B19</f>
+        <v>239.60000000000002</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="5"/>
+        <v>2875.2000000000003</v>
+      </c>
+      <c r="E19" s="20">
+        <f>B3*B19</f>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="2"/>
+        <v>955.19999999999993</v>
+      </c>
+      <c r="G19" s="24">
+        <f>B19*B4</f>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="6"/>
+        <v>1915.2000000000003</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="3"/>
+        <v>478.80000000000007</v>
+      </c>
+      <c r="J19" s="24">
+        <f t="shared" si="4"/>
+        <v>5745.6</v>
+      </c>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>50</v>
+      </c>
+      <c r="C20" s="20">
+        <f>B2*B20</f>
+        <v>299.5</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="5"/>
+        <v>3594</v>
+      </c>
+      <c r="E20" s="20">
+        <f>B3*B20</f>
+        <v>99.5</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="2"/>
+        <v>1194</v>
+      </c>
+      <c r="G20" s="24">
+        <f>B20*B4</f>
+        <v>199.5</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="6"/>
+        <v>2394</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="3"/>
+        <v>598.5</v>
+      </c>
+      <c r="J20" s="24">
+        <f t="shared" si="4"/>
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>60</v>
+      </c>
+      <c r="C21" s="20">
+        <f>B2*B21</f>
+        <v>359.40000000000003</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="5"/>
+        <v>4312.8</v>
+      </c>
+      <c r="E21" s="20">
+        <f>B3*B21</f>
+        <v>119.4</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="2"/>
+        <v>1432.8000000000002</v>
+      </c>
+      <c r="G21" s="24">
+        <f>B21*B4</f>
+        <v>239.4</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="6"/>
+        <v>2872.8</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="3"/>
+        <v>718.2</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="4"/>
+        <v>8618.4000000000015</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
+        <v>70</v>
+      </c>
+      <c r="C22" s="20">
+        <f>B2*B22</f>
+        <v>419.3</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="5"/>
+        <v>5031.6000000000004</v>
+      </c>
+      <c r="E22" s="20">
+        <f>B3*B22</f>
+        <v>139.30000000000001</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="2"/>
+        <v>1671.6000000000001</v>
+      </c>
+      <c r="G22" s="24">
+        <f>B22*B4</f>
+        <v>279.3</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="6"/>
+        <v>3351.6000000000004</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="3"/>
+        <v>837.90000000000009</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="4"/>
+        <v>10054.800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
+        <v>80</v>
+      </c>
+      <c r="C23" s="20">
+        <f>B2*B23</f>
+        <v>479.20000000000005</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="5"/>
+        <v>5750.4000000000005</v>
+      </c>
+      <c r="E23" s="20">
+        <f>B3*B23</f>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="2"/>
+        <v>1910.3999999999999</v>
+      </c>
+      <c r="G23" s="24">
+        <f>B23*B4</f>
+        <v>319.20000000000005</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="6"/>
+        <v>3830.4000000000005</v>
+      </c>
+      <c r="I23" s="24">
+        <f t="shared" si="3"/>
+        <v>957.60000000000014</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" si="4"/>
+        <v>11491.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
+        <v>90</v>
+      </c>
+      <c r="C24" s="20">
+        <f>B2*B24</f>
+        <v>539.1</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="5"/>
+        <v>6469.2000000000007</v>
+      </c>
+      <c r="E24" s="20">
+        <f>B3*B24</f>
+        <v>179.1</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="2"/>
+        <v>2149.1999999999998</v>
+      </c>
+      <c r="G24" s="24">
+        <f>B24*B4</f>
+        <v>359.1</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="6"/>
+        <v>4309.2000000000007</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="3"/>
+        <v>1077.3000000000002</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" si="4"/>
+        <v>12927.600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>100</v>
+      </c>
+      <c r="C25" s="20">
+        <f>B2*B25</f>
+        <v>599</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="5"/>
+        <v>7188</v>
+      </c>
+      <c r="E25" s="20">
+        <f>B3*B25</f>
+        <v>199</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="2"/>
+        <v>2388</v>
+      </c>
+      <c r="G25" s="24">
+        <f>B25*B4</f>
+        <v>399</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="6"/>
+        <v>4788</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="3"/>
+        <v>1197</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" si="4"/>
+        <v>14364</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
+        <v>200</v>
+      </c>
+      <c r="C26" s="20">
+        <f>B2*B26</f>
+        <v>1198</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="5"/>
+        <v>14376</v>
+      </c>
+      <c r="E26" s="20">
+        <f>B3*B26</f>
+        <v>398</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="2"/>
+        <v>4776</v>
+      </c>
+      <c r="G26" s="24">
+        <f>B26*B4</f>
+        <v>798</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="6"/>
+        <v>9576</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="3"/>
+        <v>2394</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="4"/>
+        <v>28728</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>300</v>
+      </c>
+      <c r="C27" s="20">
+        <f>B2*B27</f>
+        <v>1797</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="5"/>
+        <v>21564</v>
+      </c>
+      <c r="E27" s="20">
+        <f>B3*B27</f>
+        <v>597</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="2"/>
+        <v>7164</v>
+      </c>
+      <c r="G27" s="24">
+        <f>B27*B4</f>
+        <v>1197</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="6"/>
+        <v>14364</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="3"/>
+        <v>3591</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="4"/>
+        <v>43092</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>400</v>
+      </c>
+      <c r="C28" s="20">
+        <f>B2*B28</f>
+        <v>2396</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="5"/>
+        <v>28752</v>
+      </c>
+      <c r="E28" s="20">
+        <f>B3*B28</f>
+        <v>796</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="2"/>
+        <v>9552</v>
+      </c>
+      <c r="G28" s="24">
+        <f>B28*B4</f>
+        <v>1596</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="6"/>
+        <v>19152</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="3"/>
+        <v>4788</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" si="4"/>
+        <v>57456</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>500</v>
+      </c>
+      <c r="C29" s="20">
+        <f>B2*B29</f>
+        <v>2995</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" si="5"/>
+        <v>35940</v>
+      </c>
+      <c r="E29" s="20">
+        <f>B3*B29</f>
+        <v>995</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="2"/>
+        <v>11940</v>
+      </c>
+      <c r="G29" s="24">
+        <f>B29*B4</f>
+        <v>1995</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="6"/>
+        <v>23940</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="3"/>
+        <v>5985</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="4"/>
+        <v>71820</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <v>600</v>
+      </c>
+      <c r="C30" s="20">
+        <f>B2*B30</f>
+        <v>3594</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="5"/>
+        <v>43128</v>
+      </c>
+      <c r="E30" s="20">
+        <f>B3*B30</f>
+        <v>1194</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="2"/>
+        <v>14328</v>
+      </c>
+      <c r="G30" s="24">
+        <f>B30*B4</f>
+        <v>2394</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="6"/>
+        <v>28728</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="3"/>
+        <v>7182</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="4"/>
+        <v>86184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>700</v>
+      </c>
+      <c r="C31" s="20">
+        <f>B2*B31</f>
+        <v>4193</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="5"/>
+        <v>50316</v>
+      </c>
+      <c r="E31" s="20">
+        <f>B3*B31</f>
+        <v>1393</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="2"/>
+        <v>16716</v>
+      </c>
+      <c r="G31" s="24">
+        <f>B31*B4</f>
+        <v>2793</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="6"/>
+        <v>33516</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="3"/>
+        <v>8379</v>
+      </c>
+      <c r="J31" s="24">
+        <f t="shared" si="4"/>
+        <v>100548</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>800</v>
+      </c>
+      <c r="C32" s="20">
+        <f>B2*B32</f>
+        <v>4792</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="5"/>
+        <v>57504</v>
+      </c>
+      <c r="E32" s="20">
+        <f>B3*B32</f>
+        <v>1592</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="2"/>
+        <v>19104</v>
+      </c>
+      <c r="G32" s="24">
+        <f>B32*B4</f>
+        <v>3192</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="6"/>
+        <v>38304</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="3"/>
+        <v>9576</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="4"/>
+        <v>114912</v>
+      </c>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>900</v>
+      </c>
+      <c r="C33" s="20">
+        <f>B2*B33</f>
+        <v>5391</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="5"/>
+        <v>64692</v>
+      </c>
+      <c r="E33" s="20">
+        <f>B3*B33</f>
+        <v>1791</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="2"/>
+        <v>21492</v>
+      </c>
+      <c r="G33" s="24">
+        <f>B33*B4</f>
+        <v>3591</v>
+      </c>
+      <c r="H33" s="24">
+        <f t="shared" si="6"/>
+        <v>43092</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" si="3"/>
+        <v>10773</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="4"/>
+        <v>129276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="20">
+        <f>B2*B34</f>
+        <v>5990</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="5"/>
+        <v>71880</v>
+      </c>
+      <c r="E34" s="20">
+        <f>B3*B34</f>
+        <v>1990</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="2"/>
+        <v>23880</v>
+      </c>
+      <c r="G34" s="24">
+        <f>B34*B4</f>
+        <v>3990</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="6"/>
+        <v>47880</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>11970</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="4"/>
+        <v>143640</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="20">
+        <f>B2*B35</f>
+        <v>11980</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" si="5"/>
+        <v>143760</v>
+      </c>
+      <c r="E35" s="20">
+        <f>B3*B35</f>
+        <v>3980</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="2"/>
+        <v>47760</v>
+      </c>
+      <c r="G35" s="24">
+        <f>B35*B4</f>
+        <v>7980</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="6"/>
+        <v>95760</v>
+      </c>
+      <c r="I35" s="24">
+        <f t="shared" si="3"/>
+        <v>23940</v>
+      </c>
+      <c r="J35" s="24">
+        <f t="shared" si="4"/>
+        <v>287280</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C36" s="20">
+        <f>B2*B36</f>
+        <v>17970</v>
+      </c>
+      <c r="D36" s="20">
+        <f t="shared" si="5"/>
+        <v>215640</v>
+      </c>
+      <c r="E36" s="20">
+        <f>B3*B36</f>
+        <v>5970</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="2"/>
+        <v>71640</v>
+      </c>
+      <c r="G36" s="24">
+        <f>B36*B4</f>
+        <v>11970</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="6"/>
+        <v>143640</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="3"/>
+        <v>35910</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" si="4"/>
+        <v>430920</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>4000</v>
+      </c>
+      <c r="C37" s="20">
+        <f>B2*B37</f>
+        <v>23960</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" si="5"/>
+        <v>287520</v>
+      </c>
+      <c r="E37" s="20">
+        <f>B3*B37</f>
+        <v>7960</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="2"/>
+        <v>95520</v>
+      </c>
+      <c r="G37" s="24">
+        <f>B37*B4</f>
+        <v>15960</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="6"/>
+        <v>191520</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="3"/>
+        <v>47880</v>
+      </c>
+      <c r="J37" s="24">
+        <f t="shared" si="4"/>
+        <v>574560</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C38" s="20">
+        <f>B2*B38</f>
+        <v>29950</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="5"/>
+        <v>359400</v>
+      </c>
+      <c r="E38" s="20">
+        <f>B3*B38</f>
+        <v>9950</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="2"/>
+        <v>119400</v>
+      </c>
+      <c r="G38" s="24">
+        <f>B38*B4</f>
+        <v>19950</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="6"/>
+        <v>239400</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="3"/>
+        <v>59850</v>
+      </c>
+      <c r="J38" s="24">
+        <f t="shared" si="4"/>
+        <v>718200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C39" s="20">
+        <f>B2*B39</f>
+        <v>35940</v>
+      </c>
+      <c r="D39" s="20">
+        <f t="shared" si="5"/>
+        <v>431280</v>
+      </c>
+      <c r="E39" s="20">
+        <f>B3*B39</f>
+        <v>11940</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="2"/>
+        <v>143280</v>
+      </c>
+      <c r="G39" s="24">
+        <f>B39*B4</f>
+        <v>23940</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="6"/>
+        <v>287280</v>
+      </c>
+      <c r="I39" s="24">
+        <f t="shared" si="3"/>
+        <v>71820</v>
+      </c>
+      <c r="J39" s="24">
+        <f t="shared" si="4"/>
+        <v>861840</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
+        <v>7000</v>
+      </c>
+      <c r="C40" s="20">
+        <f>B2*B40</f>
+        <v>41930</v>
+      </c>
+      <c r="D40" s="20">
+        <f t="shared" si="5"/>
+        <v>503160</v>
+      </c>
+      <c r="E40" s="20">
+        <f>B3*B40</f>
+        <v>13930</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="2"/>
+        <v>167160</v>
+      </c>
+      <c r="G40" s="24">
+        <f>B40*B4</f>
+        <v>27930</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="6"/>
+        <v>335160</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="3"/>
+        <v>83790</v>
+      </c>
+      <c r="J40" s="24">
+        <f t="shared" si="4"/>
+        <v>1005480</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>8000</v>
+      </c>
+      <c r="C41" s="20">
+        <f>B2*B41</f>
+        <v>47920</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="shared" si="5"/>
+        <v>575040</v>
+      </c>
+      <c r="E41" s="20">
+        <f>B3*B41</f>
+        <v>15920</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="2"/>
+        <v>191040</v>
+      </c>
+      <c r="G41" s="24">
+        <f>B41*B4</f>
+        <v>31920</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="6"/>
+        <v>383040</v>
+      </c>
+      <c r="I41" s="24">
+        <f t="shared" si="3"/>
+        <v>95760</v>
+      </c>
+      <c r="J41" s="24">
+        <f t="shared" si="4"/>
+        <v>1149120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
+        <v>9000</v>
+      </c>
+      <c r="C42" s="20">
+        <f>B2*B42</f>
+        <v>53910</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" si="5"/>
+        <v>646920</v>
+      </c>
+      <c r="E42" s="20">
+        <f>B3*B42</f>
+        <v>17910</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="2"/>
+        <v>214920</v>
+      </c>
+      <c r="G42" s="24">
+        <f>B42*B4</f>
+        <v>35910</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="6"/>
+        <v>430920</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="3"/>
+        <v>107730</v>
+      </c>
+      <c r="J42" s="24">
+        <f t="shared" si="4"/>
+        <v>1292760</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C43" s="20">
+        <f>B2*B43</f>
+        <v>59900</v>
+      </c>
+      <c r="D43" s="20">
+        <f t="shared" si="5"/>
+        <v>718800</v>
+      </c>
+      <c r="E43" s="20">
+        <f>B3*B43</f>
+        <v>19900</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" si="2"/>
+        <v>238800</v>
+      </c>
+      <c r="G43" s="24">
+        <f>B43*B4</f>
+        <v>39900</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="6"/>
+        <v>478800</v>
+      </c>
+      <c r="I43" s="24">
+        <f t="shared" si="3"/>
+        <v>119700</v>
+      </c>
+      <c r="J43" s="24">
+        <f t="shared" si="4"/>
+        <v>1436400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
